--- a/doc/2조테이블명세서.xlsx
+++ b/doc/2조테이블명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunea\git\DosimStorage\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD75B52-5711-4F30-ADAC-F2282EA4131E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F0ADCB-89F3-437F-8A9E-101F4F40E5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="2655" windowWidth="18285" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="2970" windowWidth="18285" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="139">
   <si>
     <t>2조 '도심창고' 테이블명세서</t>
   </si>
@@ -336,13 +336,7 @@
     <t>입금기한</t>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-  </si>
-  <si>
     <t>account_name</t>
-  </si>
-  <si>
-    <t>VARCHAR2(16)</t>
   </si>
   <si>
     <t>VARCHAR2(10)</t>
@@ -460,6 +454,18 @@
   </si>
   <si>
     <t>priv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -936,86 +942,86 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1358,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,64 +1373,64 @@
     <col min="2" max="2" width="4.125" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
@@ -1434,7 +1440,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>89</v>
@@ -1460,7 +1466,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>7</v>
@@ -1478,10 +1484,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>7</v>
@@ -1500,7 +1506,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>7</v>
@@ -1519,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>7</v>
@@ -1538,7 +1544,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>7</v>
@@ -1551,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1563,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -1605,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -1619,38 +1625,38 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="39" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
@@ -1686,7 +1692,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>7</v>
@@ -1704,10 +1710,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>7</v>
@@ -1725,38 +1731,38 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="51"/>
+      <c r="G23" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="39" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="40"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="22" t="s">
@@ -1792,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>7</v>
@@ -1810,10 +1816,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>7</v>
@@ -1832,7 +1838,7 @@
         <v>92</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>7</v>
@@ -1851,7 +1857,7 @@
         <v>95</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>7</v>
@@ -1869,38 +1875,38 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="38"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="39" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="40"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="22" t="s">
@@ -1936,7 +1942,7 @@
         <v>102</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>7</v>
@@ -1975,38 +1981,38 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="46"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="37" t="s">
+      <c r="F37" s="33"/>
+      <c r="G37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="38"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
@@ -2042,7 +2048,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>7</v>
@@ -2063,7 +2069,7 @@
         <v>83</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>7</v>
@@ -2084,7 +2090,7 @@
         <v>102</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>7</v>
@@ -2105,7 +2111,7 @@
         <v>96</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>93</v>
@@ -2130,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -2139,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>97</v>
@@ -2151,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -2165,38 +2171,38 @@
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="46"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="37" t="s">
+      <c r="F47" s="33"/>
+      <c r="G47" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="39" t="s">
+      <c r="F48" s="35"/>
+      <c r="G48" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="40"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
@@ -2253,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>7</v>
@@ -2274,7 +2280,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>7</v>
@@ -2289,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>84</v>
@@ -2352,7 +2358,7 @@
         <v>82</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>7</v>
@@ -2367,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>103</v>
@@ -2392,13 +2398,13 @@
         <v>88</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H58" s="13"/>
     </row>
@@ -2412,38 +2418,38 @@
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="46"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="37" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="38"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="39" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="40"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
@@ -2479,7 +2485,7 @@
         <v>82</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>7</v>
@@ -2497,10 +2503,10 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>7</v>
@@ -2513,13 +2519,13 @@
         <v>3</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>7</v>
@@ -2537,38 +2543,38 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="46"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="37" t="s">
+      <c r="F67" s="33"/>
+      <c r="G67" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="38"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="54"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="39" t="s">
+      <c r="F68" s="35"/>
+      <c r="G68" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="40"/>
+      <c r="H68" s="39"/>
     </row>
     <row r="69" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
@@ -2625,7 +2631,7 @@
         <v>61</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>7</v>
@@ -2667,7 +2673,7 @@
         <v>33</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>93</v>
@@ -2686,7 +2692,7 @@
         <v>22</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>7</v>
@@ -2705,7 +2711,7 @@
         <v>47</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>7</v>
@@ -2745,7 +2751,7 @@
         <v>23</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>93</v>
@@ -2808,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H80" s="9"/>
     </row>
@@ -2817,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>18</v>
@@ -2829,7 +2835,7 @@
         <v>93</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H81" s="9"/>
     </row>
@@ -2850,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H82" s="13"/>
     </row>
@@ -2864,38 +2870,38 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="46"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="37" t="s">
+      <c r="F84" s="33"/>
+      <c r="G84" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="38"/>
+      <c r="H84" s="37"/>
     </row>
     <row r="85" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="54"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E85" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="44"/>
-      <c r="G85" s="39" t="s">
+      <c r="F85" s="35"/>
+      <c r="G85" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H85" s="40"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3" t="s">
@@ -2952,7 +2958,7 @@
         <v>25</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>7</v>
@@ -2971,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>93</v>
@@ -2990,7 +2996,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>93</v>
@@ -3009,7 +3015,7 @@
         <v>22</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>7</v>
@@ -3028,7 +3034,7 @@
         <v>47</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>7</v>
@@ -3068,7 +3074,7 @@
         <v>23</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>93</v>
@@ -3131,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H97" s="9"/>
     </row>
@@ -3140,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>28</v>
@@ -3159,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>18</v>
@@ -3201,48 +3207,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -3256,6 +3220,48 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
